--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -67,67 +70,76 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>nice</t>
@@ -136,79 +148,73 @@
     <t>years</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>also</t>
   </si>
   <si>
     <t>hot</t>
@@ -217,21 +223,24 @@
     <t>little</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>better</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
@@ -239,9 +248,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -605,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5348837209302325</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9032258064516129</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4444444444444444</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2378378378378379</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8606811145510835</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,12 +822,36 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>149</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>0.8405797101449275</v>
@@ -847,16 +877,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.7792207792207793</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M7">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,21 +898,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7662337662337663</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7457627118644068</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.6926163723916533</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>863</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>863</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.680577849117175</v>
+        <v>0.65625</v>
       </c>
       <c r="L12">
-        <v>848</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>848</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>398</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6590909090909091</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6521739130434783</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1050,47 +1080,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6346153846153846</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L15">
+        <v>109</v>
+      </c>
+      <c r="M15">
+        <v>109</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>66</v>
-      </c>
-      <c r="M15">
-        <v>66</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6171428571428571</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,47 +1132,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>0.6</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>26</v>
-      </c>
-      <c r="K17">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L17">
-        <v>43</v>
-      </c>
-      <c r="M17">
-        <v>43</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.562874251497006</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L18">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5542168674698795</v>
+        <v>0.5748502994011976</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5526315789473685</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1206,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5470085470085471</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5211267605633803</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1258,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.518796992481203</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="L23">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1284,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5076923076923077</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L25">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4918032786885246</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="K27">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="L27">
-        <v>35</v>
-      </c>
       <c r="M27">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1388,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.46875</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,47 +1444,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4632352941176471</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="L29">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="M29">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>219</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4630350194552529</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L30">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4324324324324325</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L31">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1492,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4264705882352941</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1518,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4205479452054794</v>
+        <v>0.4357976653696498</v>
       </c>
       <c r="L33">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="M33">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1544,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>423</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.41</v>
+        <v>0.4205479452054794</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1570,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3973509933774834</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L35">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M35">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1596,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3923444976076555</v>
+        <v>0.3732057416267943</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1622,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3362068965517241</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L37">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c r="M37">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,24 +1675,24 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>616</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1674,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1700,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>0.3245033112582781</v>
+      </c>
+      <c r="L40">
         <v>49</v>
       </c>
-      <c r="K40">
-        <v>0.316546762589928</v>
-      </c>
-      <c r="L40">
-        <v>44</v>
-      </c>
       <c r="M40">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1726,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3157894736842105</v>
+        <v>0.3240043057050592</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1752,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>91</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.3072847682119205</v>
+        <v>0.2868117797695263</v>
       </c>
       <c r="L42">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M42">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1775,128 +1805,128 @@
         <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>523</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2741312741312741</v>
+        <v>0.2785145888594164</v>
       </c>
       <c r="L43">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M43">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2484276729559748</v>
+        <v>0.2664576802507837</v>
       </c>
       <c r="L44">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M44">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2378048780487805</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2349726775956284</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="L46">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M46">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>280</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2171052631578947</v>
+        <v>0.2324561403508772</v>
       </c>
       <c r="L47">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M47">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1908,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2160493827160494</v>
+        <v>0.2309782608695652</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="N48">
         <v>0.97</v>
@@ -1934,47 +1964,47 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2147651006711409</v>
+        <v>0.2304832713754647</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>117</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2136363636363636</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="L50">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1986,56 +2016,56 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>346</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2043795620437956</v>
+        <v>0.2059496567505721</v>
       </c>
       <c r="L51">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M51">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2033492822966507</v>
+        <v>0.2052505966587112</v>
       </c>
       <c r="L52">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M52">
         <v>86</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>333</v>
@@ -2043,62 +2073,62 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L53">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>216</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1821561338289963</v>
+        <v>0.1873479318734793</v>
       </c>
       <c r="L54">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="M54">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>220</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1647727272727273</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="L55">
         <v>29</v>
@@ -2116,99 +2146,99 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1518987341772152</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="L56">
+        <v>34</v>
+      </c>
+      <c r="M56">
         <v>36</v>
       </c>
-      <c r="M56">
-        <v>37</v>
-      </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1517241379310345</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="L57">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1482014388489209</v>
+        <v>0.1512027491408935</v>
       </c>
       <c r="L58">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>592</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1318681318681319</v>
+        <v>0.1407129455909944</v>
       </c>
       <c r="L59">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="M59">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="N59">
         <v>0.96</v>
@@ -2220,215 +2250,241 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>316</v>
+        <v>916</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.127221702525725</v>
+        <v>0.1122302158273381</v>
       </c>
       <c r="L60">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="M60">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>933</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1255060728744939</v>
+        <v>0.1120218579234973</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>216</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1099476439790576</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="L62">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="N62">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1020</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.09844559585492228</v>
+        <v>0.106457242582897</v>
       </c>
       <c r="L63">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="M63">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="N63">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="O63">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>348</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.09302325581395349</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L64">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N64">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O64">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>468</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.08598130841121496</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="L65">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M65">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N65">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>489</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.0851581508515815</v>
+        <v>0.08932038834951456</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M66">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N66">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="O66">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>376</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.05213903743315508</v>
+        <v>0.07606679035250463</v>
       </c>
       <c r="L67">
+        <v>41</v>
+      </c>
+      <c r="M67">
+        <v>44</v>
+      </c>
+      <c r="N67">
+        <v>0.93</v>
+      </c>
+      <c r="O67">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68">
+        <v>0.05248990578734859</v>
+      </c>
+      <c r="L68">
         <v>39</v>
       </c>
-      <c r="M67">
-        <v>58</v>
-      </c>
-      <c r="N67">
-        <v>0.67</v>
-      </c>
-      <c r="O67">
-        <v>0.33</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>709</v>
+      <c r="M68">
+        <v>63</v>
+      </c>
+      <c r="N68">
+        <v>0.62</v>
+      </c>
+      <c r="O68">
+        <v>0.38</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
